--- a/HTD3/graphics.xlsx
+++ b/HTD3/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\UNIVERSITY\DATOS\estructura-datos-2024\HTD3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A5C59C-E369-46EB-B03E-A694BFFAFA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCDEFD-D73F-4AFE-B361-C737D126D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,6 +104,1282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GnomeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7690000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="14">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RadixSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ShellSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7F2C-415B-8621-E966E1C99FA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="982129743"/>
+        <c:axId val="924166016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="982129743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924166016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="924166016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982129743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360165</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE357FC-1832-C423-096A-2DAF1255682A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,7 +1648,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +1700,12 @@
       <c r="C2">
         <v>2E-3</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -435,6 +1717,12 @@
       <c r="C3">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -446,6 +1734,12 @@
       <c r="C4">
         <v>2.1999999999999999E-2</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -457,6 +1751,12 @@
       <c r="C5">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -468,6 +1768,12 @@
       <c r="C6">
         <v>5.3999999999999999E-2</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -479,6 +1785,12 @@
       <c r="C7">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -490,6 +1802,12 @@
       <c r="C8">
         <v>0.111</v>
       </c>
+      <c r="D8">
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -501,6 +1819,12 @@
       <c r="C9">
         <v>0.14899999999999999</v>
       </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -512,6 +1836,12 @@
       <c r="C10">
         <v>0.185</v>
       </c>
+      <c r="D10">
+        <v>1E-3</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -523,6 +1853,12 @@
       <c r="C11">
         <v>0.23699999999999999</v>
       </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -534,6 +1870,12 @@
       <c r="C12">
         <v>0.53800000000000003</v>
       </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -545,6 +1887,12 @@
       <c r="C13">
         <v>0.93100000000000005</v>
       </c>
+      <c r="D13">
+        <v>2E-3</v>
+      </c>
+      <c r="E13">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -556,6 +1904,12 @@
       <c r="C14">
         <v>1.4590000000000001</v>
       </c>
+      <c r="D14">
+        <v>2E-3</v>
+      </c>
+      <c r="E14">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -567,6 +1921,12 @@
       <c r="C15">
         <v>2.1030000000000002</v>
       </c>
+      <c r="D15">
+        <v>2E-3</v>
+      </c>
+      <c r="E15">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -578,8 +1938,18 @@
       <c r="C16">
         <v>3.7690000000000001</v>
       </c>
+      <c r="D16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F16">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/HTD3/graphics.xlsx
+++ b/HTD3/graphics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Documents\UNIVERSITY\DATOS\estructura-datos-2024\HTD3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FCDEFD-D73F-4AFE-B361-C737D126D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9727DC7-FE88-4750-A3E5-4847730160E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2475" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gnomeSort" sheetId="1" r:id="rId1"/>
@@ -87,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +122,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Comparación entre algoritmos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> (Sin SelectionSort)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -161,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>gnomeSort!$C$1</c:f>
+              <c:f>gnomeSort!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -184,54 +215,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>gnomeSort!$C$2:$C$16</c:f>
+              <c:f>gnomeSort!$D$2:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.0699999367934601E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.185</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1030000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7690000000000001</c:v>
+                  <c:v>6.2600000092061196E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.06100000266451E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.6399999913119199E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.96999999388935E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.6549999893177301E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.5930000012740401E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.3910000022151502E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>4.1079999937210199E-4</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>4.5670000145037101E-4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>5.2610000057029505E-4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>5.1319999874976897E-4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>5.5280000015045505E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>7.2430000000167595E-4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>7.3460000021441298E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,7 +279,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>gnomeSort!$D$1</c:f>
+              <c:f>gnomeSort!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -271,54 +302,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>gnomeSort!$D$2:$D$16</c:f>
+              <c:f>gnomeSort!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>8.3700000686803806E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9149999863875499E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.7219999871449502E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.8080000023182904E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.12049999916052E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5642000016669001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.6352999991795501E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.94449999980861E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1E-3</c:v>
+                  <c:v>2.4190000003727601E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-3</c:v>
+                  <c:v>2.5059999989025502E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2E-3</c:v>
+                  <c:v>2.9554000011557898E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.1486999996559401E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.6567999995895601E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2E-3</c:v>
+                  <c:v>3.8502999996126099E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>4.0936000004876396E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,49 +394,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.3380000018514601E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.3639999896404301E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.1529999917838701E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.42679999953543E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8614000000525201E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.3880999997345498E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.0167999993864201E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.5772000010183499E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0632000000186902E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.5034999984636601E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2E-3</c:v>
+                  <c:v>5.1370999990467603E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2E-3</c:v>
+                  <c:v>5.6063000010908503E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2E-3</c:v>
+                  <c:v>6.2016000010771599E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2E-3</c:v>
+                  <c:v>6.7743999989033901E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>7.3823000002448602E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,8 +480,50 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>9.9100001534679905E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4550000054878101E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9859999964828603E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7060000078054102E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1334999999235099E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44199999886041E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.753299999109E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.26579999980458E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5202000015269702E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6144999992538899E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9819000010320399E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.29449999844655E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6830999997619E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.93140000051062E-3</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>4.4727999993483501E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -494,6 +567,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.1259999882895499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2470000041939703E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8689999968919405E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0200000047625497E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0584999999991801E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8738999988272499E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.49939999937487E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7595999997865801E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0015999998577098E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3831999988033199E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4557999986427599E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6751000004878699E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0183999988366802E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0074000007734797E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4008000002359001E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -501,48 +619,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7F2C-415B-8621-E966E1C99FA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>gnomeSort!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SelectionSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>gnomeSort!$H$2:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7F2C-415B-8621-E966E1C99FA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -580,6 +656,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.9100001231417903E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5410000014526301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1540000054519602E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5450000106939098E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7709999964572403E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2909999946423297E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6829999893088803E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1393999993742901E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4484999992419E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4224999995349199E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9324999993841599E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0616999991034299E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1122000016475699E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.21499999861407E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4396000007982301E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -601,6 +722,1073 @@
         <c:smooth val="0"/>
         <c:axId val="982129743"/>
         <c:axId val="924166016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SelectionSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$H$2:$H$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>3.1269999999494698E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9443999992508898E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.5290999995777297E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7096400000809801E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.82194000010349E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6008600000277497E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.9441100000185501E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.8824399999575606E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.10128769999937499</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.12888109999948899</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.154615499999636</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.18526650000057901</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.21892260000095101</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.25807680000070798</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.29575979999935897</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-7F2C-415B-8621-E966E1C99FA5}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="982129743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924166016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="924166016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982129743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>SelectionSort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> y heapSort</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.3380000018514601E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3639999896404301E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1529999917838701E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42679999953543E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8614000000525201E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3880999997345498E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0167999993864201E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5772000010183499E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0632000000186902E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5034999984636601E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1370999990467603E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6063000010908503E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2016000010771599E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7743999989033901E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3823000002448602E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B61-49EA-BDD3-21047F4FBE3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gnomeSort!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gnomeSort!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.1269999999494698E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9443999992508898E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5290999995777297E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7096400000809801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.82194000010349E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6008600000277497E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9441100000185501E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8824399999575606E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10128769999937499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12888109999948899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.154615499999636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18526650000057901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21892260000095101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25807680000070798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29575979999935897</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3B61-49EA-BDD3-21047F4FBE3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="982129743"/>
+        <c:axId val="924166016"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GnomeSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$D$2:$D$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>2.0699999367934601E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.2600000092061196E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>1.06100000266451E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="General">
+                        <c:v>1.6399999913119199E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="General">
+                        <c:v>1.96999999388935E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5" formatCode="General">
+                        <c:v>2.6549999893177301E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6" formatCode="General">
+                        <c:v>3.5930000012740401E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>4.3910000022151502E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="General">
+                        <c:v>4.1079999937210199E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="9" formatCode="General">
+                        <c:v>4.5670000145037101E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="10" formatCode="General">
+                        <c:v>5.2610000057029505E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="11" formatCode="General">
+                        <c:v>5.1319999874976897E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="12" formatCode="General">
+                        <c:v>5.5280000015045505E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="13" formatCode="General">
+                        <c:v>7.2430000000167595E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="14" formatCode="General">
+                        <c:v>7.3460000021441298E-4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3B61-49EA-BDD3-21047F4FBE3F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>QuickSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$C$2:$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0" formatCode="0.00E+00">
+                        <c:v>8.3700000686803806E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9149999863875499E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.7219999871449502E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.8080000023182904E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.12049999916052E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5642000016669001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6352999991795501E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.94449999980861E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.4190000003727601E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.5059999989025502E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.9554000011557898E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.1486999996559401E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.6567999995895601E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.8502999996126099E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.0936000004876396E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-3B61-49EA-BDD3-21047F4FBE3F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MergeSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$F$2:$F$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0" formatCode="0.00E+00">
+                        <c:v>9.9100001534679905E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4550000054878101E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.9859999964828603E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.7060000078054102E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1334999999235099E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.44199999886041E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.753299999109E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.26579999980458E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.5202000015269702E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.6144999992538899E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.9819000010320399E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.29449999844655E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.6830999997619E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>3.93140000051062E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.4727999993483501E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-3B61-49EA-BDD3-21047F4FBE3F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>RadixSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$G$2:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0">
+                        <c:v>1.1259999882895499E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.2470000041939703E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.8689999968919405E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.0200000047625497E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0584999999991801E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.8738999988272499E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.49939999937487E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.7595999997865801E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.0015999998577098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.3831999988033199E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.4557999986427599E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.6751000004878699E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.0183999988366802E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>4.0074000007734797E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.4008000002359001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-3B61-49EA-BDD3-21047F4FBE3F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ShellSort</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>gnomeSort!$I$2:$I$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="15"/>
+                      <c:pt idx="0" formatCode="0.00E+00">
+                        <c:v>3.9100001231417903E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5410000014526301E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.1540000054519602E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.5450000106939098E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.7709999964572403E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.2909999946423297E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.6829999893088803E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1393999993742901E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.4484999992419E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.4224999995349199E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9324999993841599E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0616999991034299E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.1122000016475699E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.21499999861407E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.4396000007982301E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-3B61-49EA-BDD3-21047F4FBE3F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="982129743"/>
@@ -825,6 +2013,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1341,20 +2569,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>360165</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>131564</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>607768</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1374,6 +3118,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>345785</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9430B134-1434-44AF-9338-471A6E00E5A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1647,18 +3429,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,10 +3451,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1697,14 +3479,26 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2">
-        <v>2E-3</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>8.3700000686803806E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0699999367934601E-5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.3380000018514601E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9.9100001534679905E-5</v>
+      </c>
+      <c r="G2">
+        <v>1.1259999882895499E-4</v>
+      </c>
+      <c r="H2">
+        <v>3.1269999999494698E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.9100001231417903E-5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1712,16 +3506,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="C3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>2.9149999863875499E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.2600000092061196E-5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.3639999896404301E-4</v>
+      </c>
+      <c r="F3">
+        <v>3.4550000054878101E-4</v>
+      </c>
+      <c r="G3">
+        <v>3.2470000041939703E-4</v>
+      </c>
+      <c r="H3">
+        <v>2.9443999992508898E-3</v>
+      </c>
+      <c r="I3">
+        <v>1.5410000014526301E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1729,16 +3535,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>514</v>
       </c>
       <c r="C4">
-        <v>2.1999999999999999E-2</v>
+        <v>5.7219999871449502E-4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.06100000266451E-4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9.1529999917838701E-4</v>
+      </c>
+      <c r="F4">
+        <v>5.9859999964828603E-4</v>
+      </c>
+      <c r="G4">
+        <v>5.8689999968919405E-4</v>
+      </c>
+      <c r="H4">
+        <v>8.5290999995777297E-3</v>
+      </c>
+      <c r="I4">
+        <v>3.1540000054519602E-4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1746,16 +3564,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>721</v>
       </c>
       <c r="C5">
-        <v>3.4000000000000002E-2</v>
+        <v>8.8080000023182904E-4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.6399999913119199E-4</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.42679999953543E-3</v>
+      </c>
+      <c r="F5">
+        <v>8.7060000078054102E-4</v>
+      </c>
+      <c r="G5">
+        <v>8.0200000047625497E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.7096400000809801E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5450000106939098E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,16 +3593,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>928</v>
       </c>
       <c r="C6">
-        <v>5.3999999999999999E-2</v>
+        <v>1.12049999916052E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.96999999388935E-4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.8614000000525201E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.1334999999235099E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.0584999999991801E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.82194000010349E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.7709999964572403E-4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,16 +3622,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>1135</v>
       </c>
       <c r="C7">
-        <v>8.3000000000000004E-2</v>
+        <v>1.5642000016669001E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.6549999893177301E-4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.3880999997345498E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.44199999886041E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.8738999988272499E-3</v>
+      </c>
+      <c r="H7">
+        <v>4.6008600000277497E-2</v>
+      </c>
+      <c r="I7">
+        <v>8.2909999946423297E-4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1797,16 +3651,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>1342</v>
       </c>
       <c r="C8">
-        <v>0.111</v>
+        <v>1.6352999991795501E-3</v>
       </c>
       <c r="D8">
-        <v>1E-3</v>
+        <v>3.5930000012740401E-4</v>
       </c>
       <c r="E8">
-        <v>1E-3</v>
+        <v>3.0167999993864201E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.753299999109E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.49939999937487E-3</v>
+      </c>
+      <c r="H8">
+        <v>5.9441100000185501E-2</v>
+      </c>
+      <c r="I8">
+        <v>9.6829999893088803E-4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,16 +3680,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="C9">
-        <v>0.14899999999999999</v>
+        <v>1.94449999980861E-3</v>
       </c>
       <c r="D9">
-        <v>1E-3</v>
+        <v>4.3910000022151502E-4</v>
       </c>
       <c r="E9">
-        <v>1E-3</v>
+        <v>3.5772000010183499E-3</v>
+      </c>
+      <c r="F9">
+        <v>2.26579999980458E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.7595999997865801E-3</v>
+      </c>
+      <c r="H9">
+        <v>7.8824399999575606E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.1393999993742901E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1831,16 +3709,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>900</v>
+        <v>1757</v>
       </c>
       <c r="C10">
-        <v>0.185</v>
+        <v>2.4190000003727601E-3</v>
       </c>
       <c r="D10">
-        <v>1E-3</v>
+        <v>4.1079999937210199E-4</v>
       </c>
       <c r="E10">
-        <v>1E-3</v>
+        <v>4.0632000000186902E-3</v>
+      </c>
+      <c r="F10">
+        <v>2.5202000015269702E-3</v>
+      </c>
+      <c r="G10">
+        <v>2.0015999998577098E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.10128769999937499</v>
+      </c>
+      <c r="I10">
+        <v>1.4484999992419E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,16 +3738,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>1964</v>
       </c>
       <c r="C11">
-        <v>0.23699999999999999</v>
+        <v>2.5059999989025502E-3</v>
       </c>
       <c r="D11">
-        <v>1E-3</v>
+        <v>4.5670000145037101E-4</v>
       </c>
       <c r="E11">
-        <v>1E-3</v>
+        <v>4.5034999984636601E-3</v>
+      </c>
+      <c r="F11">
+        <v>2.6144999992538899E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.3831999988033199E-3</v>
+      </c>
+      <c r="H11">
+        <v>0.12888109999948899</v>
+      </c>
+      <c r="I11">
+        <v>1.4224999995349199E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,16 +3767,28 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1500</v>
+        <v>2171</v>
       </c>
       <c r="C12">
-        <v>0.53800000000000003</v>
+        <v>2.9554000011557898E-3</v>
       </c>
       <c r="D12">
-        <v>2E-3</v>
+        <v>5.2610000057029505E-4</v>
       </c>
       <c r="E12">
-        <v>2E-3</v>
+        <v>5.1370999990467603E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.9819000010320399E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.4557999986427599E-3</v>
+      </c>
+      <c r="H12">
+        <v>0.154615499999636</v>
+      </c>
+      <c r="I12">
+        <v>1.9324999993841599E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,16 +3796,28 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2000</v>
+        <v>2378</v>
       </c>
       <c r="C13">
-        <v>0.93100000000000005</v>
+        <v>3.1486999996559401E-3</v>
       </c>
       <c r="D13">
-        <v>2E-3</v>
+        <v>5.1319999874976897E-4</v>
       </c>
       <c r="E13">
-        <v>2E-3</v>
+        <v>5.6063000010908503E-3</v>
+      </c>
+      <c r="F13">
+        <v>3.29449999844655E-3</v>
+      </c>
+      <c r="G13">
+        <v>2.6751000004878699E-3</v>
+      </c>
+      <c r="H13">
+        <v>0.18526650000057901</v>
+      </c>
+      <c r="I13">
+        <v>2.0616999991034299E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1899,16 +3825,28 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2500</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>1.4590000000000001</v>
+        <v>3.6567999995895601E-3</v>
       </c>
       <c r="D14">
-        <v>2E-3</v>
+        <v>5.5280000015045505E-4</v>
       </c>
       <c r="E14">
-        <v>2E-3</v>
+        <v>6.2016000010771599E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.6830999997619E-3</v>
+      </c>
+      <c r="G14">
+        <v>3.0183999988366802E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.21892260000095101</v>
+      </c>
+      <c r="I14">
+        <v>2.1122000016475699E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1916,16 +3854,28 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3000</v>
+        <v>2792</v>
       </c>
       <c r="C15">
-        <v>2.1030000000000002</v>
+        <v>3.8502999996126099E-3</v>
       </c>
       <c r="D15">
-        <v>2E-3</v>
+        <v>7.2430000000167595E-4</v>
       </c>
       <c r="E15">
-        <v>2E-3</v>
+        <v>6.7743999989033901E-3</v>
+      </c>
+      <c r="F15">
+        <v>3.93140000051062E-3</v>
+      </c>
+      <c r="G15">
+        <v>4.0074000007734797E-3</v>
+      </c>
+      <c r="H15">
+        <v>0.25807680000070798</v>
+      </c>
+      <c r="I15">
+        <v>2.21499999861407E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1933,23 +3883,33 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C16">
-        <v>3.7690000000000001</v>
+        <v>4.0936000004876396E-3</v>
       </c>
       <c r="D16">
-        <v>3.0000000000000001E-3</v>
+        <v>7.3460000021441298E-4</v>
       </c>
       <c r="E16">
-        <v>3.0000000000000001E-3</v>
+        <v>7.3823000002448602E-3</v>
       </c>
       <c r="F16">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4727999993483501E-3</v>
+      </c>
+      <c r="G16">
+        <v>3.4008000002359001E-3</v>
+      </c>
+      <c r="H16">
+        <v>0.29575979999935897</v>
+      </c>
+      <c r="I16">
+        <v>2.4396000007982301E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>